--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1758,11 +1758,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E257" activeCellId="0" sqref="E257"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B294" activeCellId="0" sqref="B294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -4685,13 +4685,13 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="18" t="s">
+      <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B280" s="24" t="s">
+      <c r="B280" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C280" s="20" t="s">
+      <c r="C280" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="18" t="s">
         <v>266</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1504,7 +1504,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1533,6 +1533,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1573,7 +1579,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1674,6 +1680,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1725,7 +1743,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1758,11 +1776,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B294" activeCellId="0" sqref="B294"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A293" activeCellId="0" sqref="A293:C293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -4806,35 +4824,35 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="18" t="s">
+      <c r="A291" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="24" t="s">
+      <c r="B291" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C291" s="20" t="s">
+      <c r="C291" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="18" t="s">
+      <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B292" s="24" t="s">
+      <c r="B292" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="18" t="s">
+      <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B293" s="24" t="s">
+      <c r="B293" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C293" s="20" t="s">
+      <c r="C293" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4993,7 +5011,7 @@
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B309" s="25" t="s">
+      <c r="B309" s="28" t="s">
         <v>300</v>
       </c>
       <c r="C309" s="8" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1537,8 +1537,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
@@ -1743,7 +1743,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1776,8 +1776,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A293" activeCellId="0" sqref="A293:C293"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B267" activeCellId="0" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4692,13 +4692,13 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B279" s="24" t="s">
+      <c r="B279" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C279" s="20" t="s">
+      <c r="C279" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4813,17 +4813,17 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="18" t="s">
+      <c r="A290" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B290" s="24" t="s">
+      <c r="B290" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C290" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="25" t="s">
         <v>266</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1414,10 +1414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1483,15 +1483,38 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1502,31 +1525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,13 +1563,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1593,24 +1587,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1625,13 +1625,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1646,8 +1646,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB47804"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1658,8 +1664,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB47804"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -1688,14 +1706,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1706,49 +1736,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,7 +1766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,7 +1790,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,19 +1862,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,13 +1892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,55 +1904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,26 +1933,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1982,16 +1997,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2006,143 +2021,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2184,33 +2208,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2218,7 +2240,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2226,25 +2247,55 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2632,13 +2683,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.525" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10.525" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="123" style="1" customWidth="1"/>
@@ -2836,13 +2887,13 @@
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2858,35 +2909,35 @@
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2902,13 +2953,13 @@
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2924,46 +2975,46 @@
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2990,35 +3041,35 @@
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3034,167 +3085,167 @@
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="19"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6"/>
     </row>
     <row r="43" ht="21" spans="1:3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="6"/>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -3205,7 +3256,7 @@
       <c r="A57" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -3213,866 +3264,866 @@
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="6"/>
     </row>
     <row r="101" ht="21" spans="1:3">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
-      <c r="A105" s="36" t="s">
+      <c r="A105" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
-      <c r="A106" s="36" t="s">
+      <c r="A106" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
-      <c r="A108" s="36" t="s">
+      <c r="A108" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
-      <c r="A113" s="36" t="s">
+      <c r="A113" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
-      <c r="A115" s="36" t="s">
+      <c r="A115" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
-      <c r="A116" s="36" t="s">
+      <c r="A116" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
-      <c r="A117" s="36" t="s">
+      <c r="A117" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B118" s="37" t="s">
+      <c r="B118" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C118" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
-      <c r="A119" s="36" t="s">
+      <c r="A119" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="37" t="s">
+      <c r="B119" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
-      <c r="A120" s="36" t="s">
+      <c r="A120" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
-      <c r="A121" s="36" t="s">
+      <c r="A121" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
-      <c r="A122" s="36" t="s">
+      <c r="A122" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
-      <c r="A123" s="36" t="s">
+      <c r="A123" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
-      <c r="A124" s="36" t="s">
+      <c r="A124" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
-      <c r="A125" s="36" t="s">
+      <c r="A125" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
-      <c r="A126" s="36" t="s">
+      <c r="A126" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
-      <c r="A127" s="36" t="s">
+      <c r="A127" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
-      <c r="A128" s="36" t="s">
+      <c r="A128" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
-      <c r="A129" s="36" t="s">
+      <c r="A129" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
-      <c r="A130" s="36" t="s">
+      <c r="A130" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B131" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="37" t="s">
+      <c r="B132" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="38" t="s">
+      <c r="C133" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
-      <c r="A134" s="36" t="s">
+      <c r="A134" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="38" t="s">
+      <c r="C134" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
-      <c r="A135" s="36" t="s">
+      <c r="A135" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C136" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="19"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="6"/>
     </row>
     <row r="139" ht="21" spans="1:3">
       <c r="A139" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="36" t="s">
         <v>135</v>
       </c>
       <c r="C139" s="9" t="s">
@@ -4083,7 +4134,7 @@
       <c r="A140" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="36" t="s">
         <v>136</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -4094,7 +4145,7 @@
       <c r="A141" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="36" t="s">
         <v>137</v>
       </c>
       <c r="C141" s="9" t="s">
@@ -4105,7 +4156,7 @@
       <c r="A142" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="27" t="s">
+      <c r="B142" s="36" t="s">
         <v>138</v>
       </c>
       <c r="C142" s="9" t="s">
@@ -4116,7 +4167,7 @@
       <c r="A143" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="36" t="s">
         <v>139</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -4127,7 +4178,7 @@
       <c r="A144" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B144" s="27" t="s">
+      <c r="B144" s="36" t="s">
         <v>140</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -4138,7 +4189,7 @@
       <c r="A145" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B145" s="27" t="s">
+      <c r="B145" s="36" t="s">
         <v>141</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -4149,7 +4200,7 @@
       <c r="A146" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="27" t="s">
+      <c r="B146" s="36" t="s">
         <v>142</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -4160,7 +4211,7 @@
       <c r="A147" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="36" t="s">
         <v>143</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -4168,13 +4219,13 @@
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="25" t="s">
+      <c r="B148" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4182,7 +4233,7 @@
       <c r="A149" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C149" s="9" t="s">
@@ -4190,46 +4241,46 @@
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="24" t="s">
+      <c r="A150" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B150" s="25" t="s">
+      <c r="B150" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="24" t="s">
+      <c r="A151" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="25" t="s">
+      <c r="B151" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="24" t="s">
+      <c r="A152" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="B152" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="39" t="s">
+      <c r="A153" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="40" t="s">
+      <c r="B153" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="41" t="s">
+      <c r="C153" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4237,7 +4288,7 @@
       <c r="A154" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="36" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="9" t="s">
@@ -4248,7 +4299,7 @@
       <c r="A155" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B155" s="27" t="s">
+      <c r="B155" s="36" t="s">
         <v>151</v>
       </c>
       <c r="C155" s="9" t="s">
@@ -4256,13 +4307,13 @@
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="39" t="s">
+      <c r="A156" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B156" s="40" t="s">
+      <c r="B156" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="41" t="s">
+      <c r="C156" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4270,7 +4321,7 @@
       <c r="A157" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="B157" s="36" t="s">
         <v>153</v>
       </c>
       <c r="C157" s="9" t="s">
@@ -4281,7 +4332,7 @@
       <c r="A158" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="27" t="s">
+      <c r="B158" s="36" t="s">
         <v>154</v>
       </c>
       <c r="C158" s="9" t="s">
@@ -4292,7 +4343,7 @@
       <c r="A159" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="36" t="s">
         <v>155</v>
       </c>
       <c r="C159" s="9" t="s">
@@ -4300,24 +4351,24 @@
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="24" t="s">
+      <c r="A160" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="25" t="s">
+      <c r="B160" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="B161" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4325,7 +4376,7 @@
       <c r="A162" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C162" s="9" t="s">
@@ -4333,46 +4384,46 @@
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="25" t="s">
+      <c r="B163" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="C163" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="31" t="s">
+      <c r="B164" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B165" s="31" t="s">
+      <c r="B165" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="26" t="s">
+      <c r="C165" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="24" t="s">
+      <c r="A166" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="B166" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4380,7 +4431,7 @@
       <c r="A167" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="B167" s="36" t="s">
         <v>163</v>
       </c>
       <c r="C167" s="9" t="s">
@@ -4388,24 +4439,24 @@
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B168" s="25" t="s">
+      <c r="B168" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="26" t="s">
+      <c r="C168" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="24" t="s">
+      <c r="A169" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B169" s="25" t="s">
+      <c r="B169" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="26" t="s">
+      <c r="C169" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4413,7 +4464,7 @@
       <c r="A170" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="36" t="s">
         <v>166</v>
       </c>
       <c r="C170" s="9" t="s">
@@ -4421,24 +4472,24 @@
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="24" t="s">
+      <c r="A171" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="26" t="s">
+      <c r="C171" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="24" t="s">
+      <c r="A172" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B172" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="26" t="s">
+      <c r="C172" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4446,7 +4497,7 @@
       <c r="A173" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="36" t="s">
         <v>169</v>
       </c>
       <c r="C173" s="9" t="s">
@@ -4457,7 +4508,7 @@
       <c r="A174" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="36" t="s">
         <v>170</v>
       </c>
       <c r="C174" s="9" t="s">
@@ -4465,3238 +4516,3235 @@
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="19"/>
+      <c r="B176" s="28"/>
       <c r="C176" s="6"/>
     </row>
     <row r="177" ht="21" spans="1:3">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
-      <c r="A178" s="36" t="s">
+      <c r="A178" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="37" t="s">
+      <c r="B178" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="38" t="s">
+      <c r="C178" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" ht="21" spans="1:3">
-      <c r="A182" s="21" t="s">
+      <c r="C181" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" ht="21" spans="1:4">
+      <c r="A182" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="23" t="s">
-        <v>7</v>
-      </c>
+      <c r="C182" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="49"/>
     </row>
     <row r="183" ht="21" spans="1:3">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="42" t="s">
+      <c r="B183" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B184" s="42" t="s">
+      <c r="B184" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C185" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="23" t="s">
+      <c r="C186" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
-      <c r="A187" s="36" t="s">
+      <c r="A187" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="38" t="s">
+      <c r="C187" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
-      <c r="A188" s="36" t="s">
+      <c r="A188" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
-      <c r="A189" s="36" t="s">
+      <c r="A189" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="37" t="s">
+      <c r="B189" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="38" t="s">
+      <c r="C189" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="23" t="s">
+      <c r="C190" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
-      <c r="A191" s="36" t="s">
+      <c r="A191" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B191" s="37" t="s">
+      <c r="B191" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="38" t="s">
+      <c r="C191" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
-      <c r="A192" s="36" t="s">
+      <c r="A192" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="37" t="s">
+      <c r="B192" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="38" t="s">
+      <c r="C192" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
-      <c r="A193" s="36" t="s">
+      <c r="A193" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B193" s="37" t="s">
+      <c r="B193" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C193" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
-      <c r="A194" s="36" t="s">
+      <c r="A194" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B194" s="37" t="s">
+      <c r="B194" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C194" s="38" t="s">
+      <c r="C194" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B195" s="22" t="s">
+      <c r="B195" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="23" t="s">
+      <c r="C195" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
-      <c r="A196" s="36" t="s">
+      <c r="A196" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B196" s="37" t="s">
+      <c r="B196" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="38" t="s">
+      <c r="C196" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
-      <c r="A197" s="36" t="s">
+      <c r="A197" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B197" s="37" t="s">
+      <c r="B197" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="38" t="s">
+      <c r="C197" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
-      <c r="A198" s="36" t="s">
+      <c r="A198" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="37" t="s">
+      <c r="B198" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="38" t="s">
+      <c r="C198" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="22" t="s">
+      <c r="B199" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="23" t="s">
+      <c r="C199" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
-      <c r="A200" s="36" t="s">
+      <c r="A200" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B200" s="37" t="s">
+      <c r="B200" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="38" t="s">
+      <c r="C200" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
-      <c r="A201" s="36" t="s">
+      <c r="A201" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B201" s="37" t="s">
+      <c r="B201" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="38" t="s">
+      <c r="C201" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
-      <c r="A202" s="36" t="s">
+      <c r="A202" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B202" s="37" t="s">
+      <c r="B202" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="38" t="s">
+      <c r="C202" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
-      <c r="A203" s="36" t="s">
+      <c r="A203" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B203" s="37" t="s">
+      <c r="B203" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="38" t="s">
+      <c r="C203" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
-      <c r="A204" s="36" t="s">
+      <c r="A204" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B204" s="37" t="s">
+      <c r="B204" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="C204" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
-      <c r="A205" s="36" t="s">
+      <c r="A205" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="37" t="s">
+      <c r="B205" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C205" s="38" t="s">
+      <c r="C205" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
-      <c r="A206" s="36" t="s">
+      <c r="A206" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B206" s="37" t="s">
+      <c r="B206" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="38" t="s">
+      <c r="C206" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C207" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
-      <c r="A208" s="36" t="s">
+      <c r="A208" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B208" s="37" t="s">
+      <c r="B208" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="38" t="s">
+      <c r="C208" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
-      <c r="A209" s="36" t="s">
+      <c r="A209" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B209" s="37" t="s">
+      <c r="B209" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="38" t="s">
+      <c r="C209" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
-      <c r="A210" s="36" t="s">
+      <c r="A210" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B210" s="37" t="s">
+      <c r="B210" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="38" t="s">
+      <c r="C210" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
-      <c r="A211" s="36" t="s">
+      <c r="A211" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B211" s="37" t="s">
+      <c r="B211" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C211" s="38" t="s">
+      <c r="C211" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="20"/>
-      <c r="B212" s="19"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="6"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="20"/>
-      <c r="B213" s="19"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="6"/>
     </row>
     <row r="214" ht="21" spans="1:3">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="22" t="s">
+      <c r="B214" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="23" t="s">
+      <c r="C214" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
-      <c r="A215" s="36" t="s">
+      <c r="A215" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B215" s="37" t="s">
+      <c r="B215" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="38" t="s">
+      <c r="C215" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
-      <c r="A216" s="21" t="s">
+      <c r="A216" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="B216" s="22" t="s">
+      <c r="B216" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
-      <c r="A217" s="36" t="s">
+      <c r="A217" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B217" s="37" t="s">
+      <c r="B217" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="38" t="s">
+      <c r="C217" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
-      <c r="A218" s="21" t="s">
+      <c r="A218" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="B218" s="22" t="s">
+      <c r="B218" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="23" t="s">
+      <c r="C218" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
-      <c r="A219" s="36" t="s">
+      <c r="A219" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B219" s="37" t="s">
+      <c r="B219" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="38" t="s">
+      <c r="C219" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
-      <c r="A220" s="36" t="s">
+      <c r="A220" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B220" s="43" t="s">
+      <c r="B220" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="38" t="s">
+      <c r="C220" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
-      <c r="A221" s="36" t="s">
+      <c r="A221" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B221" s="37" t="s">
+      <c r="B221" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="38" t="s">
+      <c r="C221" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
-      <c r="A222" s="36" t="s">
+      <c r="A222" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B222" s="37" t="s">
+      <c r="B222" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="38" t="s">
+      <c r="C222" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
-      <c r="A223" s="36" t="s">
+      <c r="A223" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B223" s="37" t="s">
+      <c r="B223" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="38" t="s">
+      <c r="C223" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
-      <c r="A224" s="36" t="s">
+      <c r="A224" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B224" s="37" t="s">
+      <c r="B224" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="38" t="s">
+      <c r="C224" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
-      <c r="A225" s="36" t="s">
+      <c r="A225" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B225" s="37" t="s">
+      <c r="B225" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="38" t="s">
+      <c r="C225" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
-      <c r="A226" s="36" t="s">
+      <c r="A226" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B226" s="37" t="s">
+      <c r="B226" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="38" t="s">
+      <c r="C226" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
-      <c r="A227" s="36" t="s">
+      <c r="A227" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B227" s="37" t="s">
+      <c r="B227" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="38" t="s">
+      <c r="C227" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
-      <c r="A228" s="36" t="s">
+      <c r="A228" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B228" s="37" t="s">
+      <c r="B228" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="38" t="s">
+      <c r="C228" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
-      <c r="A229" s="36" t="s">
+      <c r="A229" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B229" s="37" t="s">
+      <c r="B229" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="38" t="s">
+      <c r="C229" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
-      <c r="A230" s="36" t="s">
+      <c r="A230" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B230" s="37" t="s">
+      <c r="B230" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="38" t="s">
+      <c r="C230" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
-      <c r="A231" s="36" t="s">
+      <c r="A231" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B231" s="37" t="s">
+      <c r="B231" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="38" t="s">
+      <c r="C231" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
-      <c r="A232" s="36" t="s">
+      <c r="A232" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B232" s="37" t="s">
+      <c r="B232" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="38" t="s">
+      <c r="C232" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
-      <c r="A233" s="36" t="s">
+      <c r="A233" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B233" s="37" t="s">
+      <c r="B233" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="38" t="s">
+      <c r="C233" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
-      <c r="A234" s="36" t="s">
+      <c r="A234" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B234" s="37" t="s">
+      <c r="B234" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="38" t="s">
+      <c r="C234" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
-      <c r="A235" s="36" t="s">
+      <c r="A235" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B235" s="37" t="s">
+      <c r="B235" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C235" s="38" t="s">
+      <c r="C235" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="19"/>
+      <c r="B236" s="28"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="19"/>
-      <c r="C237" s="6"/>
+    <row r="237" ht="21" spans="1:3">
+      <c r="A237" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B237" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C237" s="48" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="238" ht="21" spans="1:3">
-      <c r="A238" s="10" t="s">
+      <c r="A238" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C238" s="12" t="s">
+      <c r="B238" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C238" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
-      <c r="A239" s="36" t="s">
+      <c r="A239" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="B239" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C239" s="38" t="s">
+      <c r="B239" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C239" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B240" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="C240" s="12" t="s">
+      <c r="B240" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C240" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
-      <c r="A241" s="36" t="s">
+      <c r="A241" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B241" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C241" s="38" t="s">
+      <c r="B241" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C241" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
-      <c r="A242" s="36" t="s">
+      <c r="A242" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B242" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="C242" s="38" t="s">
+      <c r="B242" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C242" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
-      <c r="A243" s="36" t="s">
+      <c r="A243" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B243" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C243" s="38" t="s">
+      <c r="B243" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C243" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
-      <c r="A244" s="36" t="s">
+      <c r="A244" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B244" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="C244" s="38" t="s">
+      <c r="B244" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C244" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
-      <c r="A245" s="36" t="s">
+      <c r="A245" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B245" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="C245" s="38" t="s">
+      <c r="B245" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C245" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
-      <c r="A246" s="36" t="s">
+      <c r="A246" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B246" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C246" s="38" t="s">
+      <c r="B246" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C246" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
-      <c r="A247" s="36" t="s">
+      <c r="A247" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B247" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C247" s="38" t="s">
+      <c r="B247" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C247" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
-      <c r="A248" s="36" t="s">
+      <c r="A248" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B248" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="C248" s="38" t="s">
+      <c r="B248" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C248" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
-      <c r="A249" s="36" t="s">
+      <c r="A249" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B249" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="C249" s="38" t="s">
+      <c r="B249" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C249" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
-      <c r="A250" s="36" t="s">
+      <c r="A250" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B250" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C250" s="38" t="s">
+      <c r="B250" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C250" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
-      <c r="A251" s="36" t="s">
+      <c r="A251" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B251" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C251" s="38" t="s">
+      <c r="B251" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C251" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
-      <c r="A252" s="36" t="s">
+      <c r="A252" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B252" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C252" s="38" t="s">
+      <c r="B252" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C252" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
-      <c r="A253" s="36" t="s">
+      <c r="A253" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B253" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C253" s="38" t="s">
+      <c r="B253" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C253" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
-      <c r="A254" s="36" t="s">
+      <c r="A254" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B254" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C254" s="38" t="s">
+      <c r="B254" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C254" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
-      <c r="A255" s="36" t="s">
+      <c r="A255" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B255" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="C255" s="38" t="s">
+      <c r="B255" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C255" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
-      <c r="A256" s="36" t="s">
+      <c r="A256" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B256" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C256" s="38" t="s">
+      <c r="B256" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C256" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
-      <c r="A257" s="36" t="s">
+      <c r="A257" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B257" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C257" s="38" t="s">
+      <c r="B257" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C257" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
-      <c r="A258" s="36" t="s">
+      <c r="A258" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B258" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="C258" s="38" t="s">
+      <c r="B258" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C258" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
-      <c r="A259" s="36" t="s">
+      <c r="A259" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B259" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="C259" s="38" t="s">
+      <c r="B259" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C259" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
-      <c r="A260" s="36" t="s">
+      <c r="A260" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B260" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="C260" s="38" t="s">
+      <c r="B260" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C260" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
-      <c r="A261" s="36" t="s">
+      <c r="A261" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B261" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C261" s="38" t="s">
+      <c r="B261" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C261" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
-      <c r="A262" s="36" t="s">
+      <c r="A262" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B262" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C262" s="38" t="s">
+      <c r="B262" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C262" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
-      <c r="A263" s="36" t="s">
+      <c r="A263" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B263" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="C263" s="38" t="s">
+      <c r="B263" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C263" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
-      <c r="A264" s="36" t="s">
+      <c r="A264" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B264" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C264" s="38" t="s">
+      <c r="B264" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C264" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
-      <c r="A265" s="36" t="s">
+      <c r="A265" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C265" s="38" t="s">
+      <c r="B265" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C265" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
-      <c r="A266" s="36" t="s">
+      <c r="A266" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B266" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C266" s="38" t="s">
+      <c r="B266" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C266" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
-      <c r="A267" s="36" t="s">
+      <c r="A267" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B267" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C267" s="38" t="s">
+      <c r="B267" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C267" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
-      <c r="A268" s="36" t="s">
+      <c r="A268" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B268" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C268" s="38" t="s">
+      <c r="B268" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C268" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
-      <c r="A269" s="36" t="s">
+      <c r="A269" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B269" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="C269" s="38" t="s">
+      <c r="B269" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C269" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
-      <c r="A270" s="36" t="s">
+      <c r="A270" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B270" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C270" s="38" t="s">
+      <c r="B270" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C270" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
-      <c r="A271" s="36" t="s">
+      <c r="A271" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B271" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C271" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" ht="21" spans="1:3">
-      <c r="A272" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="B272" s="37" t="s">
+      <c r="B271" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C272" s="38" t="s">
-        <v>7</v>
-      </c>
+      <c r="C271" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" ht="21" spans="2:3">
+      <c r="B272" s="28"/>
+      <c r="C272" s="6"/>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="19"/>
+      <c r="B273" s="28"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="19"/>
-      <c r="C274" s="6"/>
+    <row r="274" ht="21" spans="1:3">
+      <c r="A274" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B274" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="275" ht="21" spans="1:3">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C275" s="23" t="s">
+      <c r="B275" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C275" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
-      <c r="A276" s="21" t="s">
+      <c r="A276" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B276" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C276" s="23" t="s">
+      <c r="B276" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C276" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
-      <c r="A277" s="21" t="s">
+      <c r="A277" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B277" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C277" s="23" t="s">
+      <c r="B277" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C277" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
-      <c r="A278" s="21" t="s">
+      <c r="A278" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B278" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C278" s="23" t="s">
+      <c r="B278" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C278" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
-      <c r="A279" s="21" t="s">
+      <c r="A279" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B279" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C279" s="23" t="s">
+      <c r="B279" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C279" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B280" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C280" s="23" t="s">
+      <c r="B280" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C280" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
-      <c r="A281" s="21" t="s">
+      <c r="A281" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B281" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C281" s="23" t="s">
+      <c r="B281" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C281" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
-      <c r="A282" s="24" t="s">
+      <c r="A282" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B282" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="C282" s="26" t="s">
+      <c r="B282" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="C282" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
-      <c r="A283" s="24" t="s">
+      <c r="A283" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B283" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="C283" s="26" t="s">
+      <c r="B283" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C283" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
-      <c r="A284" s="24" t="s">
+      <c r="A284" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B284" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="C284" s="26" t="s">
+      <c r="B284" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C284" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
-      <c r="A285" s="24" t="s">
+      <c r="A285" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B285" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="C285" s="26" t="s">
+      <c r="B285" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C285" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
-      <c r="A286" s="21" t="s">
+      <c r="A286" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B286" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C286" s="23" t="s">
+      <c r="B286" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C286" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
-      <c r="A287" s="21" t="s">
+      <c r="A287" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B287" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C287" s="23" t="s">
+      <c r="B287" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C287" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
-      <c r="A288" s="21" t="s">
+      <c r="A288" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B288" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C288" s="23" t="s">
+      <c r="B288" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C288" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
-      <c r="A289" s="24" t="s">
+      <c r="A289" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B289" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="C289" s="26" t="s">
+      <c r="B289" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C289" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
-      <c r="A290" s="24" t="s">
+      <c r="A290" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B290" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="C290" s="26" t="s">
+      <c r="B290" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C290" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
-      <c r="A291" s="24" t="s">
+      <c r="A291" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B291" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="C291" s="26" t="s">
+      <c r="B291" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C291" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
-      <c r="A292" s="21" t="s">
+      <c r="A292" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B292" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C292" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293" ht="21" spans="1:3">
-      <c r="A293" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B293" s="22" t="s">
+      <c r="B292" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="C293" s="23" t="s">
-        <v>7</v>
-      </c>
+      <c r="C292" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" ht="21" spans="2:3">
+      <c r="B293" s="28"/>
+      <c r="C293" s="6"/>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="19"/>
+      <c r="B294" s="28"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="19"/>
-      <c r="C295" s="6"/>
+    <row r="295" ht="21" spans="1:3">
+      <c r="A295" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B295" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="C295" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="296" ht="21" spans="1:3">
-      <c r="A296" s="21" t="s">
+      <c r="A296" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C296" s="23" t="s">
+      <c r="B296" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C296" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
-      <c r="A297" s="24" t="s">
+      <c r="A297" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B297" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="C297" s="26" t="s">
+      <c r="B297" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C297" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
-      <c r="A298" s="24" t="s">
+      <c r="A298" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B298" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="C298" s="26" t="s">
+      <c r="B298" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C298" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
-      <c r="A299" s="24" t="s">
+      <c r="A299" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B299" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="C299" s="26" t="s">
+      <c r="B299" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C299" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
-      <c r="A300" s="24" t="s">
+      <c r="A300" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B300" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="C300" s="26" t="s">
+      <c r="B300" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C300" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
-      <c r="A301" s="21" t="s">
+      <c r="A301" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B301" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C301" s="23" t="s">
+      <c r="B301" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C301" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
-      <c r="A302" s="21" t="s">
+      <c r="A302" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="C302" s="23" t="s">
+      <c r="B302" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C302" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
-      <c r="A303" s="24" t="s">
+      <c r="A303" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B303" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="C303" s="26" t="s">
+      <c r="B303" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C303" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
-      <c r="A304" s="24" t="s">
+      <c r="A304" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B304" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="C304" s="26" t="s">
+      <c r="B304" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C304" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
-      <c r="A305" s="24" t="s">
+      <c r="A305" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B305" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C305" s="26" t="s">
+      <c r="B305" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C305" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
-      <c r="A306" s="24" t="s">
+      <c r="A306" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B306" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="C306" s="26" t="s">
+      <c r="B306" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C306" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
-      <c r="A307" s="24" t="s">
+      <c r="A307" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B307" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="C307" s="26" t="s">
+      <c r="B307" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C307" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
-      <c r="A308" s="21" t="s">
+      <c r="A308" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B308" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C308" s="23" t="s">
+      <c r="B308" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="C308" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
-      <c r="A309" s="21" t="s">
+      <c r="A309" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B309" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="C309" s="23" t="s">
+      <c r="B309" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C309" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
-      <c r="A310" s="21" t="s">
+      <c r="A310" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B310" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C310" s="23" t="s">
+      <c r="B310" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C310" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
-      <c r="A311" s="24" t="s">
+      <c r="A311" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B311" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="C311" s="26" t="s">
+      <c r="B311" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C311" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
-      <c r="A312" s="24" t="s">
+      <c r="A312" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B312" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="C312" s="26" t="s">
+      <c r="B312" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C312" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
-      <c r="A313" s="24" t="s">
+      <c r="A313" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B313" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C313" s="26" t="s">
+      <c r="B313" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C313" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
-      <c r="A314" s="24" t="s">
+      <c r="A314" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B314" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C314" s="26" t="s">
+      <c r="B314" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C314" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
-      <c r="A315" s="24" t="s">
+      <c r="A315" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B315" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="C315" s="26" t="s">
+      <c r="B315" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C315" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
-      <c r="A316" s="24" t="s">
+      <c r="A316" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B316" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C316" s="26" t="s">
+      <c r="B316" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C316" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
-      <c r="A317" s="24" t="s">
+      <c r="A317" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B317" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="C317" s="26" t="s">
+      <c r="B317" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C317" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
-      <c r="A318" s="24" t="s">
+      <c r="A318" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B318" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="C318" s="26" t="s">
+      <c r="B318" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C318" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
-      <c r="A319" s="24" t="s">
+      <c r="A319" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B319" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C319" s="26" t="s">
+      <c r="B319" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C319" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
-      <c r="A320" s="24" t="s">
+      <c r="A320" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B320" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C320" s="26" t="s">
+      <c r="B320" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C320" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
-      <c r="A321" s="24" t="s">
+      <c r="A321" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B321" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C321" s="26" t="s">
+      <c r="B321" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C321" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
-      <c r="A322" s="21" t="s">
+      <c r="A322" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B322" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="C322" s="23" t="s">
+      <c r="B322" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C322" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
-      <c r="A323" s="24" t="s">
+      <c r="A323" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B323" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="C323" s="26" t="s">
+      <c r="B323" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C323" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
-      <c r="A324" s="24" t="s">
+      <c r="A324" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B324" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="C324" s="26" t="s">
+      <c r="B324" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C324" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
-      <c r="A325" s="24" t="s">
+      <c r="A325" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B325" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C325" s="26" t="s">
+      <c r="B325" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C325" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
-      <c r="A326" s="24" t="s">
+      <c r="A326" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B326" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="C326" s="26" t="s">
+      <c r="B326" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C326" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
-      <c r="A327" s="24" t="s">
+      <c r="A327" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B327" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C327" s="26" t="s">
+      <c r="B327" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C327" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
-      <c r="A328" s="24" t="s">
+      <c r="A328" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B328" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C328" s="26" t="s">
+      <c r="B328" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C328" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
-      <c r="A329" s="24" t="s">
+      <c r="A329" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B329" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C329" s="26" t="s">
+      <c r="B329" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C329" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
-      <c r="A330" s="24" t="s">
+      <c r="A330" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B330" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C330" s="26" t="s">
+      <c r="B330" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C330" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
-      <c r="A331" s="24" t="s">
+      <c r="A331" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B331" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C331" s="26" t="s">
+      <c r="B331" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C331" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
-      <c r="A332" s="24" t="s">
+      <c r="A332" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B332" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C332" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" ht="21" spans="1:3">
-      <c r="A333" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="B333" s="25" t="s">
+      <c r="B332" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="C333" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="C332" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" ht="21" spans="2:3">
+      <c r="B333" s="28"/>
+      <c r="C333" s="6"/>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="19"/>
+      <c r="B334" s="28"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="19"/>
-      <c r="C335" s="6"/>
+    <row r="335" ht="21" spans="1:3">
+      <c r="A335" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B335" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="336" ht="21" spans="1:3">
       <c r="A336" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="27" t="s">
-        <v>325</v>
+      <c r="B336" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C336" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="7" t="s">
+      <c r="A337" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="B337" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C337" s="9" t="s">
+      <c r="B337" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C337" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="28" t="s">
+      <c r="A338" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="B338" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C338" s="30" t="s">
+      <c r="B338" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="C338" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="28" t="s">
+      <c r="A339" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="B339" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C339" s="30" t="s">
+      <c r="B339" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C339" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="28" t="s">
+      <c r="A340" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="B340" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="C340" s="30" t="s">
+      <c r="B340" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C340" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="28" t="s">
+      <c r="A341" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B341" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C341" s="30" t="s">
+      <c r="B341" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C341" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="7" t="s">
+      <c r="A342" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B342" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C342" s="9" t="s">
+      <c r="B342" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C342" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="24" t="s">
+      <c r="A343" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B343" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="C343" s="26" t="s">
+      <c r="B343" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C343" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="24" t="s">
+      <c r="A344" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B344" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="C344" s="26" t="s">
+      <c r="B344" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C344" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="24" t="s">
+      <c r="A345" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B345" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="C345" s="26" t="s">
+      <c r="B345" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C345" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="24" t="s">
+      <c r="A346" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B346" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="C346" s="26" t="s">
+      <c r="B346" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C346" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="24" t="s">
+      <c r="A347" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B347" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="C347" s="26" t="s">
+      <c r="B347" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C347" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="24" t="s">
+      <c r="A348" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B348" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="C348" s="26" t="s">
+      <c r="B348" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C348" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="24" t="s">
+      <c r="A349" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B349" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="C349" s="26" t="s">
+      <c r="B349" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C349" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="24" t="s">
+      <c r="A350" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B350" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C350" s="26" t="s">
+      <c r="B350" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C350" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="7" t="s">
+      <c r="A351" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B351" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="C351" s="9" t="s">
+      <c r="B351" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C351" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="24" t="s">
+      <c r="A352" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B352" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="C352" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="B353" s="35" t="s">
+      <c r="B352" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="C353" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="C352" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" ht="21" spans="2:3">
+      <c r="B353" s="28"/>
+      <c r="C353" s="6"/>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="19"/>
+      <c r="B354" s="28"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="19"/>
-      <c r="C355" s="6"/>
+    <row r="355" ht="21" spans="1:3">
+      <c r="A355" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B355" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C355" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B356" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C356" s="23" t="s">
+      <c r="B356" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="C356" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="21" t="s">
+      <c r="A357" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B357" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C357" s="23" t="s">
+      <c r="B357" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="C357" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="10" t="s">
+      <c r="A358" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B358" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="C358" s="12" t="s">
+      <c r="B358" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="C358" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="10" t="s">
+      <c r="A359" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B359" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="C359" s="12" t="s">
+      <c r="B359" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C359" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="36" t="s">
+      <c r="A360" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B360" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C360" s="38" t="s">
+      <c r="B360" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C360" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="36" t="s">
+      <c r="A361" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B361" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C361" s="38" t="s">
+      <c r="B361" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C361" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="36" t="s">
+      <c r="A362" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B362" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="C362" s="38" t="s">
+      <c r="B362" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="C362" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="10" t="s">
+      <c r="A363" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B363" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="C363" s="12" t="s">
+      <c r="B363" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="C363" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="36" t="s">
+      <c r="A364" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B364" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="C364" s="38" t="s">
+      <c r="B364" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C364" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="36" t="s">
+      <c r="A365" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B365" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C365" s="38" t="s">
+      <c r="B365" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C365" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="36" t="s">
+      <c r="A366" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B366" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C366" s="38" t="s">
+      <c r="B366" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="C366" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="10" t="s">
+      <c r="A367" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B367" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="C367" s="12" t="s">
+      <c r="B367" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="C367" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="10" t="s">
+      <c r="A368" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B368" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="C368" s="12" t="s">
+      <c r="B368" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="C368" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="36" t="s">
+      <c r="A369" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B369" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C369" s="38" t="s">
+      <c r="B369" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="C369" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="36" t="s">
+      <c r="A370" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B370" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="C370" s="38" t="s">
+      <c r="B370" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="C370" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="36" t="s">
+      <c r="A371" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B371" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="C371" s="38" t="s">
+      <c r="B371" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="C371" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="36" t="s">
+      <c r="A372" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B372" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C372" s="38" t="s">
+      <c r="B372" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="C372" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="10" t="s">
+      <c r="A373" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B373" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="C373" s="12" t="s">
+      <c r="B373" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C373" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="10" t="s">
+      <c r="A374" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B374" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="C374" s="12" t="s">
+      <c r="B374" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="C374" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="36" t="s">
+      <c r="A375" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B375" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="C375" s="38" t="s">
+      <c r="B375" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C375" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="10" t="s">
+      <c r="A376" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B376" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C376" s="12" t="s">
+      <c r="B376" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="C376" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="10" t="s">
+      <c r="A377" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B377" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="C377" s="12" t="s">
+      <c r="B377" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="C377" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="36" t="s">
+      <c r="A378" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B378" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="C378" s="38" t="s">
+      <c r="B378" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="C378" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="36" t="s">
+      <c r="A379" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B379" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="C379" s="38" t="s">
+      <c r="B379" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C379" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="36" t="s">
+      <c r="A380" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B380" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="C380" s="38" t="s">
+      <c r="B380" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="C380" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="36" t="s">
+      <c r="A381" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B381" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="C381" s="38" t="s">
+      <c r="B381" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="C381" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="10" t="s">
+      <c r="A382" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B382" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C382" s="12" t="s">
+      <c r="B382" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="C382" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="10" t="s">
+      <c r="A383" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B383" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="C383" s="12" t="s">
+      <c r="B383" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="C383" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="36" t="s">
+      <c r="A384" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B384" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="C384" s="38" t="s">
+      <c r="B384" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="C384" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="36" t="s">
+      <c r="A385" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B385" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="C385" s="38" t="s">
+      <c r="B385" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="C385" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="36" t="s">
+      <c r="A386" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B386" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="C386" s="38" t="s">
+      <c r="B386" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="C386" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="36" t="s">
+      <c r="A387" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B387" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="C387" s="38" t="s">
+      <c r="B387" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="C387" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="36" t="s">
+      <c r="A388" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B388" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="C388" s="38" t="s">
+      <c r="B388" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="C388" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="36" t="s">
+      <c r="A389" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B389" s="37" t="s">
+      <c r="B389" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="C389" s="38" t="s">
+      <c r="C389" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="36" t="s">
+      <c r="A390" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B390" s="37" t="s">
-        <v>377</v>
-      </c>
-      <c r="C390" s="38" t="s">
+      <c r="B390" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="C390" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="36" t="s">
+      <c r="A391" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B391" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="C391" s="38" t="s">
+      <c r="B391" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C391" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="36" t="s">
+      <c r="A392" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B392" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="C392" s="38" t="s">
+      <c r="B392" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C392" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="36" t="s">
+      <c r="A393" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B393" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C393" s="38" t="s">
+      <c r="B393" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="C393" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="36" t="s">
+      <c r="A394" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B394" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="C394" s="38" t="s">
+      <c r="B394" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="C394" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="36" t="s">
+      <c r="A395" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B395" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="C395" s="38" t="s">
+      <c r="B395" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="C395" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="36" t="s">
+      <c r="A396" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B396" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="C396" s="38" t="s">
+      <c r="B396" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C396" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="36" t="s">
+      <c r="A397" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B397" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C397" s="38" t="s">
+      <c r="B397" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C397" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="36" t="s">
+      <c r="A398" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B398" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="C398" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="B399" s="37" t="s">
+      <c r="B398" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="C399" s="38" t="s">
-        <v>7</v>
-      </c>
+      <c r="C398" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" ht="21" spans="2:3">
+      <c r="B399" s="28"/>
+      <c r="C399" s="6"/>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="19"/>
+      <c r="B400" s="28"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="19"/>
-      <c r="C401" s="6"/>
+    <row r="401" ht="21" spans="1:3">
+      <c r="A401" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="B401" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="C401" s="54" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="36" t="s">
+      <c r="A402" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="C402" s="38" t="s">
+      <c r="B402" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="C402" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="36" t="s">
+      <c r="A403" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="B403" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="C403" s="38" t="s">
+      <c r="B403" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="C403" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="36" t="s">
+      <c r="A404" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="B404" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="C404" s="38" t="s">
+      <c r="B404" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C404" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="36" t="s">
+      <c r="A405" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="B405" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C405" s="38" t="s">
+      <c r="B405" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C405" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="36" t="s">
+      <c r="A406" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="B406" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="C406" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="B407" s="37" t="s">
+      <c r="B406" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="C407" s="38" t="s">
-        <v>7</v>
-      </c>
+      <c r="C406" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" ht="21" spans="2:3">
+      <c r="B407" s="28"/>
+      <c r="C407" s="6"/>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="19"/>
+      <c r="B408" s="28"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="19"/>
-      <c r="C409" s="6"/>
+    <row r="409" ht="21" spans="1:3">
+      <c r="A409" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B409" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C409" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="410" ht="21" spans="1:3">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C410" s="23" t="s">
+      <c r="B410" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="C410" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
-      <c r="A411" s="21" t="s">
+      <c r="A411" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B411" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="C411" s="23" t="s">
+      <c r="B411" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="C411" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
-      <c r="A412" s="36" t="s">
+      <c r="A412" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B412" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="C412" s="38" t="s">
+      <c r="B412" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="C412" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
-      <c r="A413" s="36" t="s">
+      <c r="A413" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B413" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="C413" s="38" t="s">
+      <c r="B413" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="C413" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
-      <c r="A414" s="36" t="s">
+      <c r="A414" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B414" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="C414" s="38" t="s">
+      <c r="B414" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="C414" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
-      <c r="A415" s="36" t="s">
+      <c r="A415" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B415" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="C415" s="38" t="s">
+      <c r="B415" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="C415" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
-      <c r="A416" s="10" t="s">
+      <c r="A416" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B416" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="C416" s="12" t="s">
+      <c r="B416" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C416" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
-      <c r="A417" s="36" t="s">
+      <c r="A417" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B417" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="C417" s="38" t="s">
+      <c r="B417" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="C417" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
-      <c r="A418" s="10" t="s">
+      <c r="A418" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B418" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="C418" s="12" t="s">
+      <c r="B418" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="C418" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
-      <c r="A419" s="36" t="s">
+      <c r="A419" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B419" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="C419" s="38" t="s">
+      <c r="B419" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="C419" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
-      <c r="A420" s="36" t="s">
+      <c r="A420" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B420" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="C420" s="38" t="s">
+      <c r="B420" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C420" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
-      <c r="A421" s="36" t="s">
+      <c r="A421" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B421" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="C421" s="38" t="s">
+      <c r="B421" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="C421" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
-      <c r="A422" s="36" t="s">
+      <c r="A422" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B422" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="C422" s="38" t="s">
+      <c r="B422" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="C422" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
-      <c r="A423" s="10" t="s">
+      <c r="A423" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B423" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="C423" s="12" t="s">
+      <c r="B423" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C423" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
-      <c r="A424" s="36" t="s">
+      <c r="A424" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B424" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C424" s="38" t="s">
+      <c r="B424" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="C424" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
-      <c r="A425" s="36" t="s">
+      <c r="A425" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B425" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="C425" s="38" t="s">
+      <c r="B425" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="C425" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
-      <c r="A426" s="36" t="s">
+      <c r="A426" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B426" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="C426" s="38" t="s">
+      <c r="B426" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="C426" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
-      <c r="A427" s="36" t="s">
+      <c r="A427" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B427" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="C427" s="38" t="s">
+      <c r="B427" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="C427" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
-      <c r="A428" s="36" t="s">
+      <c r="A428" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B428" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="C428" s="38" t="s">
+      <c r="B428" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="C428" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
-      <c r="A429" s="36" t="s">
+      <c r="A429" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B429" s="37" t="s">
-        <v>412</v>
-      </c>
-      <c r="C429" s="38" t="s">
+      <c r="B429" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="C429" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
-      <c r="A430" s="36" t="s">
+      <c r="A430" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B430" s="37" t="s">
-        <v>413</v>
-      </c>
-      <c r="C430" s="38" t="s">
+      <c r="B430" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="C430" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
-      <c r="A431" s="36" t="s">
+      <c r="A431" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B431" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="C431" s="38" t="s">
+      <c r="B431" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="C431" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
-      <c r="A432" s="21" t="s">
+      <c r="A432" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B432" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="C432" s="23" t="s">
+      <c r="B432" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="C432" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
-      <c r="A433" s="36" t="s">
+      <c r="A433" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B433" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="C433" s="38" t="s">
+      <c r="B433" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C433" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
-      <c r="A434" s="36" t="s">
+      <c r="A434" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B434" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="C434" s="38" t="s">
+      <c r="B434" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="C434" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
-      <c r="A435" s="36" t="s">
+      <c r="A435" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B435" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="C435" s="38" t="s">
+      <c r="B435" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="C435" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
-      <c r="A436" s="36" t="s">
+      <c r="A436" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B436" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="C436" s="38" t="s">
+      <c r="B436" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C436" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
-      <c r="A437" s="36" t="s">
+      <c r="A437" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B437" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="C437" s="38" t="s">
+      <c r="B437" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C437" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
-      <c r="A438" s="36" t="s">
+      <c r="A438" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B438" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="C438" s="38" t="s">
+      <c r="B438" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="C438" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
-      <c r="A439" s="36" t="s">
+      <c r="A439" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B439" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="C439" s="38" t="s">
+      <c r="B439" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="C439" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
-      <c r="A440" s="36" t="s">
+      <c r="A440" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B440" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="C440" s="38" t="s">
+      <c r="B440" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="C440" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
-      <c r="A441" s="21" t="s">
+      <c r="A441" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B441" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="C441" s="23" t="s">
+      <c r="B441" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="C441" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
-      <c r="A442" s="36" t="s">
+      <c r="A442" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B442" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="C442" s="38" t="s">
+      <c r="B442" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="C442" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
-      <c r="A443" s="36" t="s">
+      <c r="A443" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B443" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="C443" s="38" t="s">
+      <c r="B443" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="C443" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
-      <c r="A444" s="36" t="s">
+      <c r="A444" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B444" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="C444" s="38" t="s">
+      <c r="B444" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="C444" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
-      <c r="A445" s="36" t="s">
+      <c r="A445" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B445" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="C445" s="38" t="s">
+      <c r="B445" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C445" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
-      <c r="A446" s="36" t="s">
+      <c r="A446" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B446" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="C446" s="38" t="s">
+      <c r="B446" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="C446" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
-      <c r="A447" s="36" t="s">
+      <c r="A447" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B447" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="C447" s="38" t="s">
+      <c r="B447" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="C447" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
-      <c r="A448" s="36" t="s">
+      <c r="A448" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B448" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="C448" s="38" t="s">
+      <c r="B448" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="C448" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
-      <c r="A449" s="36" t="s">
+      <c r="A449" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B449" s="37" t="s">
-        <v>432</v>
-      </c>
-      <c r="C449" s="38" t="s">
+      <c r="B449" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C449" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
-      <c r="A450" s="36" t="s">
+      <c r="A450" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B450" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="C450" s="38" t="s">
+      <c r="B450" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="C450" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
-      <c r="A451" s="36" t="s">
+      <c r="A451" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B451" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="C451" s="38" t="s">
+      <c r="B451" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="C451" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
-      <c r="A452" s="36" t="s">
+      <c r="A452" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B452" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="C452" s="38" t="s">
+      <c r="B452" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="C452" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
-      <c r="A453" s="36" t="s">
+      <c r="A453" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B453" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="C453" s="38" t="s">
+      <c r="B453" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C453" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
-      <c r="A454" s="36" t="s">
+      <c r="A454" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B454" s="37" t="s">
-        <v>437</v>
-      </c>
-      <c r="C454" s="38" t="s">
+      <c r="B454" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="C454" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
-      <c r="A455" s="36" t="s">
+      <c r="A455" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B455" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="C455" s="38" t="s">
+      <c r="B455" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="C455" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
-      <c r="A456" s="36" t="s">
+      <c r="A456" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B456" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="C456" s="38" t="s">
+      <c r="B456" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="C456" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
-      <c r="A457" s="36" t="s">
+      <c r="A457" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B457" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="C457" s="38" t="s">
+      <c r="B457" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="C457" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
-      <c r="A458" s="36" t="s">
+      <c r="A458" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B458" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="C458" s="38" t="s">
+      <c r="B458" s="53" t="s">
+        <v>442</v>
+      </c>
+      <c r="C458" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
-      <c r="A459" s="36" t="s">
+      <c r="A459" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B459" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="C459" s="38" t="s">
+      <c r="B459" s="53" t="s">
+        <v>443</v>
+      </c>
+      <c r="C459" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
-      <c r="A460" s="36" t="s">
+      <c r="A460" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B460" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="C460" s="38" t="s">
+      <c r="B460" s="53" t="s">
+        <v>444</v>
+      </c>
+      <c r="C460" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
-      <c r="A461" s="36" t="s">
+      <c r="A461" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B461" s="37" t="s">
-        <v>444</v>
-      </c>
-      <c r="C461" s="38" t="s">
+      <c r="B461" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="C461" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
-      <c r="A462" s="36" t="s">
+      <c r="A462" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B462" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="C462" s="38" t="s">
+      <c r="B462" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="C462" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
-      <c r="A463" s="36" t="s">
+      <c r="A463" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B463" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="C463" s="38" t="s">
+      <c r="B463" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="C463" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
-      <c r="A464" s="36" t="s">
+      <c r="A464" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B464" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="C464" s="38" t="s">
+      <c r="B464" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C464" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
-      <c r="A465" s="36" t="s">
+      <c r="A465" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B465" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="C465" s="38" t="s">
+      <c r="B465" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="C465" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
-      <c r="A466" s="36" t="s">
+      <c r="A466" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B466" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="C466" s="38" t="s">
+      <c r="B466" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="C466" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
-      <c r="A467" s="21" t="s">
+      <c r="A467" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B467" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="C467" s="23" t="s">
+      <c r="B467" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="C467" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
-      <c r="A468" s="21" t="s">
+      <c r="A468" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B468" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="C468" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="469" ht="21" spans="1:3">
-      <c r="A469" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="B469" s="22" t="s">
+      <c r="B468" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="19"/>
+      <c r="C468" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" ht="21" spans="2:3">
+      <c r="B469" s="28"/>
+      <c r="C469" s="6"/>
+    </row>
+    <row r="470" ht="21" spans="1:3">
+      <c r="A470" s="29"/>
+      <c r="B470" s="28"/>
       <c r="C470" s="6"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="20"/>
-      <c r="B471" s="19"/>
-      <c r="C471" s="6"/>
+      <c r="A471" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B471" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="C471" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="472" ht="21" spans="1:3">
-      <c r="A472" s="21" t="s">
+      <c r="A472" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="C472" s="23" t="s">
+      <c r="B472" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C472" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
-      <c r="A473" s="36" t="s">
+      <c r="A473" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B473" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="C473" s="38" t="s">
+      <c r="B473" s="53" t="s">
+        <v>456</v>
+      </c>
+      <c r="C473" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
-      <c r="A474" s="36" t="s">
+      <c r="A474" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B474" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="C474" s="38" t="s">
+      <c r="B474" s="53" t="s">
+        <v>457</v>
+      </c>
+      <c r="C474" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
-      <c r="A475" s="36" t="s">
+      <c r="A475" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B475" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="C475" s="38" t="s">
+      <c r="B475" s="53" t="s">
+        <v>458</v>
+      </c>
+      <c r="C475" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
-      <c r="A476" s="36" t="s">
+      <c r="A476" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B476" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="C476" s="38" t="s">
+      <c r="B476" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="C476" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
-      <c r="A477" s="36" t="s">
+      <c r="A477" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B477" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="C477" s="38" t="s">
+      <c r="B477" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C477" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
-      <c r="A478" s="36" t="s">
+      <c r="A478" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B478" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="C478" s="38" t="s">
+      <c r="B478" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="C478" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
-      <c r="A479" s="36" t="s">
+      <c r="A479" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B479" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="C479" s="38" t="s">
+      <c r="B479" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="C479" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
-      <c r="A480" s="36" t="s">
+      <c r="A480" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B480" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="C480" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="481" ht="21" spans="1:3">
-      <c r="A481" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="B481" s="37" t="s">
+      <c r="B480" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="C481" s="38" t="s">
+      <c r="C480" s="54" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7918,236 +7966,236 @@
     <hyperlink ref="B233" r:id="rId210" display="Check whether BST contains Dead end"/>
     <hyperlink ref="B234" r:id="rId211" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
     <hyperlink ref="B235" r:id="rId212" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId213" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId214" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId215" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId216" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId217" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId218" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId219" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId220" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId221" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId222" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId223" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId224" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId225" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId226" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId227" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId228" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId229" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId230" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId231" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId232" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId233" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId234" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId235" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId30" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId236" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId237" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId238" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId239" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId240" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId241" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId242" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId243" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId244" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId245" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId246" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId247" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId248" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId249" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId250" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId251" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId252" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId253" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId254" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId255" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId256" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId257" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId258" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId56" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId259" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId260" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId261" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId262" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId263" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId264" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId265" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId266" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId267" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId268" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId61" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId269" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId270" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId271" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId272" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId273" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId274" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId275" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId276" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId277" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId278" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId279" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId280" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId281" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId282" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId283" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId284" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId285" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId286" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId287" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId288" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId289" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId290" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId291" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId292" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId293" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId294" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId295" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId296" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId297" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId298" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId155" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId299" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId300" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId301" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId302" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId303" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId304" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId305" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId306" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId307" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId308" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId150" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId309" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId310" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId311" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId243" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId312" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId313" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId314" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId315" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId316" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId317" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId318" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId319" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId246" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId320" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId321" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId322" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId323" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId324" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId325" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId326" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId327" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId328" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId329" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId330" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId331" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId332" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId333" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId334" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId335" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId336" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId337" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId338" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId339" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId340" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId341" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId342" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId343" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId344" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId345" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId346" display="Oliver and the Game"/>
+    <hyperlink ref="B237" r:id="rId213" display="Activity Selection Problem"/>
+    <hyperlink ref="B238" r:id="rId214" display="Job SequencingProblem"/>
+    <hyperlink ref="B239" r:id="rId215" display="Huffman Coding"/>
+    <hyperlink ref="B240" r:id="rId216" display="Water Connection Problem"/>
+    <hyperlink ref="B241" r:id="rId217" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B242" r:id="rId218" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B243" r:id="rId219" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B244" r:id="rId220" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B245" r:id="rId221" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B246" r:id="rId222" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B247" r:id="rId223" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B248" r:id="rId224" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B249" r:id="rId225" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B250" r:id="rId226" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B251" r:id="rId227" display="Maximum product subset of an array"/>
+    <hyperlink ref="B252" r:id="rId228" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B253" r:id="rId229" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B254" r:id="rId230" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B255" r:id="rId231" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B256" r:id="rId232" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B257" r:id="rId233" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B258" r:id="rId234" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B259" r:id="rId235" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B260" r:id="rId30" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B261" r:id="rId236" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B262" r:id="rId237" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B263" r:id="rId238" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B264" r:id="rId239" display="Picking Up Chicks"/>
+    <hyperlink ref="B265" r:id="rId240" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B266" r:id="rId241" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B267" r:id="rId242" display="K Centers Problem"/>
+    <hyperlink ref="B268" r:id="rId243" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B269" r:id="rId244" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B270" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B271" r:id="rId245" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B274" r:id="rId246" display="Rat in a maze Problem"/>
+    <hyperlink ref="B275" r:id="rId247" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B276" r:id="rId248" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B277" r:id="rId249" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B278" r:id="rId250" display="Sudoku Solver"/>
+    <hyperlink ref="B279" r:id="rId251" display="m Coloring Problem"/>
+    <hyperlink ref="B280" r:id="rId252" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B281" r:id="rId253" display="Subset Sum Problem"/>
+    <hyperlink ref="B282" r:id="rId254" display="The Knight’s tour problem"/>
+    <hyperlink ref="B283" r:id="rId255" display="Tug of War"/>
+    <hyperlink ref="B284" r:id="rId256" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B285" r:id="rId257" display="Combinational Sum"/>
+    <hyperlink ref="B286" r:id="rId258" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B287" r:id="rId56" display="Print all permutations of a string "/>
+    <hyperlink ref="B288" r:id="rId259" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B289" r:id="rId260" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B290" r:id="rId261" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B291" r:id="rId262" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B292" r:id="rId263" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B295" r:id="rId264" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B296" r:id="rId265" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B297" r:id="rId266" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B298" r:id="rId267" display="find the middle element of a stack"/>
+    <hyperlink ref="B299" r:id="rId268" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B300" r:id="rId61" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B301" r:id="rId269" display="Reverse a String using Stack"/>
+    <hyperlink ref="B302" r:id="rId270" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B303" r:id="rId271" display="Find the next Greater element"/>
+    <hyperlink ref="B304" r:id="rId272" display="The celebrity Problem"/>
+    <hyperlink ref="B305" r:id="rId273" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B306" r:id="rId274" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B307" r:id="rId275" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B308" r:id="rId276" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B309" r:id="rId277" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId278" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B311" r:id="rId279" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B312" r:id="rId280" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B313" r:id="rId281" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B314" r:id="rId282" display="Implement Stack using Queue"/>
+    <hyperlink ref="B315" r:id="rId283" display="Implement Stack using Deque"/>
+    <hyperlink ref="B316" r:id="rId284" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B317" r:id="rId285" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B318" r:id="rId286" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B319" r:id="rId287" display="Implement a Circular queue"/>
+    <hyperlink ref="B320" r:id="rId288" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B321" r:id="rId289" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B322" r:id="rId290" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B323" r:id="rId291" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B324" r:id="rId292" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B325" r:id="rId293" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B326" r:id="rId294" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B327" r:id="rId295" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B328" r:id="rId296" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B329" r:id="rId297" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B330" r:id="rId298" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B331" r:id="rId155" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B332" r:id="rId299" display="Next Smaller Element"/>
+    <hyperlink ref="B335" r:id="rId300" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B336" r:id="rId301" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B337" r:id="rId302" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B338" r:id="rId303" display="“k” largest element in an array"/>
+    <hyperlink ref="B339" r:id="rId304" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B340" r:id="rId305" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B341" r:id="rId306" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B342" r:id="rId307" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B343" r:id="rId308" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B344" r:id="rId150" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B345" r:id="rId309" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B346" r:id="rId310" display="Median in a stream of Integers"/>
+    <hyperlink ref="B347" r:id="rId311" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B348" r:id="rId243" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B349" r:id="rId312" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B350" r:id="rId313" display="Convert min heap to max heap"/>
+    <hyperlink ref="B351" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B352" r:id="rId314" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B355" r:id="rId315" display="Create a Graph, print it"/>
+    <hyperlink ref="B356" r:id="rId316" display="Implement BFS algorithm "/>
+    <hyperlink ref="B357" r:id="rId317" display="Implement DFS Algo "/>
+    <hyperlink ref="B358" r:id="rId318" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId319" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId246" display="Search in a Maze"/>
+    <hyperlink ref="B361" r:id="rId320" display="Minimum Step by Knight"/>
+    <hyperlink ref="B362" r:id="rId321" display="flood fill algo"/>
+    <hyperlink ref="B363" r:id="rId322" display="Clone a graph"/>
+    <hyperlink ref="B364" r:id="rId323" display="Making wired Connections"/>
+    <hyperlink ref="B365" r:id="rId324" display="word Ladder "/>
+    <hyperlink ref="B366" r:id="rId325" display="Dijkstra algo"/>
+    <hyperlink ref="B367" r:id="rId326" display="Implement Topological Sort "/>
+    <hyperlink ref="B368" r:id="rId327" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B369" r:id="rId328" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B370" r:id="rId329" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B371" r:id="rId330" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B372" r:id="rId331" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B373" r:id="rId332" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B374" r:id="rId333" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B375" r:id="rId334" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B376" r:id="rId335" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B377" r:id="rId336" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B378" r:id="rId337" display="Graph ColouringProblem"/>
+    <hyperlink ref="B379" r:id="rId338" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B380" r:id="rId339" display="Find bridge in a graph"/>
+    <hyperlink ref="B381" r:id="rId340" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B382" r:id="rId341" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B383" r:id="rId342" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B384" r:id="rId343" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B385" r:id="rId344" display="Journey to the Moon"/>
+    <hyperlink ref="B386" r:id="rId345" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B387" r:id="rId346" display="Oliver and the Game"/>
+    <hyperlink ref="B388" r:id="rId347" display="Water Jug problem using BFS"/>
     <hyperlink ref="B389" r:id="rId347" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId347" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId259" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId251" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId348" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId349" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId350" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId351" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId352" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId223" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId353" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId354" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId355" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId356" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId357" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId358" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId359" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId360" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId361" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId362" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId363" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId364" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId59" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId253" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId365" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId366" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId367" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId368" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId369" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId76" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId54" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId370" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId371" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId372" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId373" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId374" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId375" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId376" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId377" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId378" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId379" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId380" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId381" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId382" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId11" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId383" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId384" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId385" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId386" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId387" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId9" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId388" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId389" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId62" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId390" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId253" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId391" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId67" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId392" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId393" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId394" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId395" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId396" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId26" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId397" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId398" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId399" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId58" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId400" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId401" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId404" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId405" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId406" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId407" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId408" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId409" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId410" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId411" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId412" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId413" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId414" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId415" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId416" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId417" display="Power Set"/>
+    <hyperlink ref="B390" r:id="rId259" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B391" r:id="rId251" display="M-ColouringProblem"/>
+    <hyperlink ref="B392" r:id="rId348" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B393" r:id="rId349" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B394" r:id="rId350" display="Vertex Cover Problem"/>
+    <hyperlink ref="B395" r:id="rId351" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B396" r:id="rId352" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B397" r:id="rId223" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B398" r:id="rId353" display="Two Clique Problem"/>
+    <hyperlink ref="B401" r:id="rId354" display="Construct a trie from scratch"/>
+    <hyperlink ref="B402" r:id="rId355" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B403" r:id="rId356" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B404" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B405" r:id="rId357" display="Implement a Phone Directory"/>
+    <hyperlink ref="B406" r:id="rId358" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B409" r:id="rId359" display="Coin ChangeProblem"/>
+    <hyperlink ref="B410" r:id="rId360" display="Knapsack Problem"/>
+    <hyperlink ref="B411" r:id="rId361" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B412" r:id="rId362" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId363" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B414" r:id="rId364" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B415" r:id="rId59" display="Edit Distance"/>
+    <hyperlink ref="B416" r:id="rId253" display="Subset Sum Problem"/>
+    <hyperlink ref="B417" r:id="rId365" display="Friends Pairing Problem"/>
+    <hyperlink ref="B418" r:id="rId366" display="Gold Mine Problem"/>
+    <hyperlink ref="B419" r:id="rId367" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B420" r:id="rId368" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B421" r:id="rId369" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B422" r:id="rId76" display="Longest Common Subsequence"/>
+    <hyperlink ref="B423" r:id="rId54" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B424" r:id="rId370" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B425" r:id="rId371" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B426" r:id="rId372" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B427" r:id="rId373" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B428" r:id="rId374" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B429" r:id="rId375" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B430" r:id="rId376" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B431" r:id="rId377" display="Egg Dropping Problem"/>
+    <hyperlink ref="B432" r:id="rId378" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B433" r:id="rId379" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B434" r:id="rId380" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B435" r:id="rId381" display="Min Cost PathProblem"/>
+    <hyperlink ref="B436" r:id="rId382" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B437" r:id="rId11" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B438" r:id="rId383" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B439" r:id="rId384" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B440" r:id="rId385" display="Longest Common Substring"/>
+    <hyperlink ref="B441" r:id="rId386" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B442" r:id="rId387" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B443" r:id="rId9" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B444" r:id="rId388" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B445" r:id="rId389" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B446" r:id="rId62" display="Word Break Problem"/>
+    <hyperlink ref="B447" r:id="rId390" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B448" r:id="rId253" display="Partition problem"/>
+    <hyperlink ref="B449" r:id="rId391" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B450" r:id="rId67" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B451" r:id="rId392" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B452" r:id="rId393" display="Longest alternating subsequence"/>
+    <hyperlink ref="B453" r:id="rId394" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B454" r:id="rId395" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B455" r:id="rId396" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B456" r:id="rId26" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B457" r:id="rId397" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B458" r:id="rId398" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B459" r:id="rId399" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B460" r:id="rId58" display="Word Wrap Problem"/>
+    <hyperlink ref="B461" r:id="rId400" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B462" r:id="rId401" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B463" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B464" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B465" r:id="rId404" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B466" r:id="rId405" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B467" r:id="rId406" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B468" r:id="rId407" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B471" r:id="rId408" display="Count set bits in an integer"/>
+    <hyperlink ref="B472" r:id="rId409" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B473" r:id="rId410" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B474" r:id="rId411" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B475" r:id="rId412" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B476" r:id="rId413" display="Find position of the only set bit"/>
+    <hyperlink ref="B477" r:id="rId414" display="Copy set bits in a range"/>
+    <hyperlink ref="B478" r:id="rId415" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B479" r:id="rId416" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B480" r:id="rId417" display="Power Set"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
